--- a/products.xlsx
+++ b/products.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drattek/W/REFACE/Import products/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c706bb5fafd5b3c/Documentos/Importar Productos Odoo/odoo_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24483DD2-5A3E-1F4A-91FC-F0F2CCD7C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{24483DD2-5A3E-1F4A-91FC-F0F2CCD7C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953E2264-A441-43E4-88CF-A66EA300E70D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>id_external</t>
   </si>
@@ -176,16 +176,16 @@
     <t>F00E164931-PESF00E164931-PES</t>
   </si>
   <si>
-    <t>DANY</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>CHIDO</t>
-  </si>
-  <si>
-    <t>ONE</t>
+    <t>Oscar8</t>
+  </si>
+  <si>
+    <t>Irving8</t>
+  </si>
+  <si>
+    <t>Chido8</t>
+  </si>
+  <si>
+    <t>OCHO</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,12 +560,12 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,13 +648,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>D2</f>
         <v>57190-PES</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("desc",C2)</f>
+        <v>descOscar8</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -674,6 +675,10 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT(A2,B2,C2)</f>
+        <v>57190-PESdescOscar8Oscar8</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
@@ -717,13 +722,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">D3</f>
         <v>0986MF4395.-PES</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="B3" t="str">
+        <f>_xlfn.CONCAT("desc",C3)</f>
+        <v>descIrving8</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -743,6 +749,10 @@
       <c r="H3" t="s">
         <v>29</v>
       </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(A3,B3,C3)</f>
+        <v>0986MF4395.-PESdescIrving8Irving8</v>
+      </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
@@ -786,13 +796,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>9450905200-PES</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT("desc",C4)</f>
+        <v>descChido8</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -812,6 +823,10 @@
       <c r="H4" t="s">
         <v>29</v>
       </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT(A4,B4,C4)</f>
+        <v>9450905200-PESdescChido8Chido8</v>
+      </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
@@ -855,13 +870,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>F00E164931-PES</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT("desc",C5)</f>
+        <v>descOCHO</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -880,6 +896,10 @@
       </c>
       <c r="H5" t="s">
         <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT(A5,B5,C5)</f>
+        <v>F00E164931-PESdescOCHOOCHO</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -926,5 +946,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c706bb5fafd5b3c/Documentos/Importar Productos Odoo/odoo_scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drattek/W/REFACE/Import products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{24483DD2-5A3E-1F4A-91FC-F0F2CCD7C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953E2264-A441-43E4-88CF-A66EA300E70D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0DC31-C9E5-5641-ABA7-AFD3558EB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>id_external</t>
   </si>
@@ -176,16 +176,19 @@
     <t>F00E164931-PESF00E164931-PES</t>
   </si>
   <si>
-    <t>Oscar8</t>
-  </si>
-  <si>
-    <t>Irving8</t>
-  </si>
-  <si>
-    <t>Chido8</t>
-  </si>
-  <si>
-    <t>OCHO</t>
+    <t>01010101</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -221,8 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,12 +564,15 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="26" max="26" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,24 +648,24 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>D2</f>
         <v>57190-PES</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.CONCAT("desc",C2)</f>
-        <v>descOscar8</v>
+        <v>descUri</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -677,7 +684,7 @@
       </c>
       <c r="I2" t="str">
         <f>_xlfn.CONCAT(A2,B2,C2)</f>
-        <v>57190-PESdescOscar8Oscar8</v>
+        <v>57190-PESdescUriUri</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
@@ -721,18 +728,21 @@
       <c r="Y2" t="s">
         <v>37</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">D3</f>
         <v>0986MF4395.-PES</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT("desc",C3)</f>
-        <v>descIrving8</v>
+        <v>descan</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -751,7 +761,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.CONCAT(A3,B3,C3)</f>
-        <v>0986MF4395.-PESdescIrving8Irving8</v>
+        <v>0986MF4395.-PESdescanan</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -795,18 +805,21 @@
       <c r="Y3" t="s">
         <v>37</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>9450905200-PES</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT("desc",C4)</f>
-        <v>descChido8</v>
+        <v>descga</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -825,7 +838,7 @@
       </c>
       <c r="I4" t="str">
         <f>_xlfn.CONCAT(A4,B4,C4)</f>
-        <v>9450905200-PESdescChido8Chido8</v>
+        <v>9450905200-PESdescgaga</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -869,18 +882,21 @@
       <c r="Y4" t="s">
         <v>37</v>
       </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>F00E164931-PES</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.CONCAT("desc",C5)</f>
-        <v>descOCHO</v>
+        <v>descto</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -899,7 +915,7 @@
       </c>
       <c r="I5" t="str">
         <f>_xlfn.CONCAT(A5,B5,C5)</f>
-        <v>F00E164931-PESdescOCHOOCHO</v>
+        <v>F00E164931-PESdesctoto</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -942,6 +958,9 @@
       </c>
       <c r="Y5" t="s">
         <v>37</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drattek/W/REFACE/Import products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0DC31-C9E5-5641-ABA7-AFD3558EB60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC21E52C-C6B0-AD4A-86BB-E4AC2C4EC185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E6E0099B-C55A-F54D-82B9-E1B6267B876E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>id_external</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>default_code</t>
   </si>
   <si>
-    <t>xcross</t>
-  </si>
-  <si>
     <t>standard_price</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>typpe</t>
-  </si>
-  <si>
     <t>taxes_id</t>
   </si>
   <si>
@@ -101,15 +92,9 @@
     <t>self_order_available</t>
   </si>
   <si>
-    <t>`route_ids/id`</t>
-  </si>
-  <si>
     <t>categoria</t>
   </si>
   <si>
-    <t>CVE_LINEA</t>
-  </si>
-  <si>
     <t>cve_linea2</t>
   </si>
   <si>
@@ -119,12 +104,6 @@
     <t>UBICACION</t>
   </si>
   <si>
-    <t>57190-PES</t>
-  </si>
-  <si>
-    <t>57190-PES57190-PES</t>
-  </si>
-  <si>
     <t>Unidades</t>
   </si>
   <si>
@@ -140,55 +119,52 @@
     <t>delivery</t>
   </si>
   <si>
-    <t>AFINACION</t>
-  </si>
-  <si>
-    <t>FILTROS ACEITE</t>
-  </si>
-  <si>
-    <t>purchase_stock.route_warehouse0_buy,stock.route_warehouse0_mto</t>
-  </si>
-  <si>
-    <t>DAPESA</t>
-  </si>
-  <si>
-    <t>0986MF4395.-PES</t>
-  </si>
-  <si>
-    <t>0986MF4395.-PES0986MF4395.-PES</t>
-  </si>
-  <si>
-    <t>FILTROS AIRE</t>
-  </si>
-  <si>
-    <t>9450905200-PES</t>
-  </si>
-  <si>
-    <t>9450905200-PES9450905200-PES</t>
-  </si>
-  <si>
-    <t>FILTROS GASOLINA</t>
-  </si>
-  <si>
-    <t>F00E164931-PES</t>
-  </si>
-  <si>
-    <t>F00E164931-PESF00E164931-PES</t>
-  </si>
-  <si>
     <t>01010101</t>
   </si>
   <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>description_sale</t>
+  </si>
+  <si>
+    <t>x_studio_xcross</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>IRVING-CHINGON</t>
+  </si>
+  <si>
+    <t>DESCRI CHINGONA</t>
+  </si>
+  <si>
+    <t>CHINGON</t>
+  </si>
+  <si>
+    <t>CODE1-CHIN</t>
+  </si>
+  <si>
+    <t>CODE2-CHIN</t>
+  </si>
+  <si>
+    <t>barcode-chin</t>
+  </si>
+  <si>
+    <t>CHINGONA</t>
+  </si>
+  <si>
+    <t>POSCHINGONA</t>
+  </si>
+  <si>
+    <t>PROVCHINGON</t>
+  </si>
+  <si>
+    <t>route_ids</t>
+  </si>
+  <si>
+    <t>Reabastecer sobre pedido (MTO),Comprar</t>
   </si>
 </sst>
 </file>
@@ -561,15 +537,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6512EC-B955-4245-8917-7B6A8CB419FC}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="26" max="26" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -577,135 +578,132 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>D2</f>
-        <v>57190-PES</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("desc",C2)</f>
-        <v>descUri</v>
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>527.88</v>
+        <v>10000</v>
       </c>
       <c r="G2">
-        <v>1131.1500000000001</v>
+        <v>100000</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT(A2,B2,C2)</f>
-        <v>57190-PESdescUriUri</v>
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
@@ -723,244 +721,13 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">D3</f>
-        <v>0986MF4395.-PES</v>
-      </c>
-      <c r="B3" t="str">
-        <f>_xlfn.CONCAT("desc",C3)</f>
-        <v>descan</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>197.09</v>
-      </c>
-      <c r="G3">
-        <v>422.33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="str">
-        <f>_xlfn.CONCAT(A3,B3,C3)</f>
-        <v>0986MF4395.-PESdescanan</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>9450905200-PES</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT("desc",C4)</f>
-        <v>descga</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>62.5</v>
-      </c>
-      <c r="G4">
-        <v>133.93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="str">
-        <f>_xlfn.CONCAT(A4,B4,C4)</f>
-        <v>9450905200-PESdescgaga</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>F00E164931-PES</v>
-      </c>
-      <c r="B5" t="str">
-        <f>_xlfn.CONCAT("desc",C5)</f>
-        <v>descto</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>47.52</v>
-      </c>
-      <c r="G5">
-        <v>101.83</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xlfn.CONCAT(A5,B5,C5)</f>
-        <v>F00E164931-PESdesctoto</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
